--- a/biology/Médecine/Laxatif_osmotique/Laxatif_osmotique.xlsx
+++ b/biology/Médecine/Laxatif_osmotique/Laxatif_osmotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les laxatifs osmotiques sont des laxatifs qui captent (ou qui retiennent) l'eau dans l'intestin (plus spécifiquement dans le côlon).
 Par exemple les macrogols de haut poids moléculaire (3350 ou 4000) sont de longs polymères linéaires sur lesquels sont retenues les molécules d’eau par liaisons hydrogène. Administrés par voie orale, ils entraînent un accroissement du volume des liquides intestinaux.
